--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477783.0931770016</v>
+        <v>475261.5885864824</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.4138547124087</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>354.7231841648752</v>
+        <v>124.4150885110466</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>99.84726627243003</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>123.1557955400555</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>92.87962584274344</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>15.10524828400264</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>255.5604529134304</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>10.03845516391025</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>243.7267364508178</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.9215217917714</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>229.9185438711167</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>65.73974843664331</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>70.38939730683889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>86.62626738629524</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>108.0660982347007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>149.109581850317</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899578</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181936</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189243</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>59.66990246485181</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.1982794515033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>193.996253843244</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>156.3923706291105</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>245.4109786013537</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.78074638267616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2962,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>93.07916359104966</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>42.54416032354752</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>189.6423345837146</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>116.2836593751502</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>30.85302310518039</v>
       </c>
     </row>
     <row r="41">
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.9081607862897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>45.66054613217656</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1153.606984404185</v>
+        <v>1468.828881207249</v>
       </c>
       <c r="C2" t="n">
-        <v>1153.606984404185</v>
+        <v>1099.866364266837</v>
       </c>
       <c r="D2" t="n">
-        <v>795.3412857974345</v>
+        <v>741.6006656600869</v>
       </c>
       <c r="E2" t="n">
-        <v>409.5530331991902</v>
+        <v>355.8124130618426</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>230.1406064850278</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>218.4762602497208</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.50778578647</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810658</v>
+        <v>1855.428721271371</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.0960630783031</v>
+        <v>472.6531669530527</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>472.6531669530527</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>322.536527540717</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1542.628316192938</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>1287.943827987051</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W4" t="n">
-        <v>998.5266579500903</v>
+        <v>700.6427178510701</v>
       </c>
       <c r="X4" t="n">
-        <v>770.537107052073</v>
+        <v>472.6531669530527</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.7445279085429</v>
+        <v>472.6531669530527</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.46096678957</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>768.4960607092901</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>382.7078081110458</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>375.7623073618424</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.46096678957</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3525561915583</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C7" t="n">
-        <v>359.4163732636514</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D7" t="n">
-        <v>209.2997338513157</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>61.38664026892255</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>61.38664026892255</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>61.38664026892255</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.783151063345</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="X7" t="n">
-        <v>930.7936001653281</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.001021021798</v>
+        <v>938.9442613508774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1758.295537883726</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1389.333020943314</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1031.067322336564</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>645.2790697383193</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>638.3335689891159</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y8" t="n">
-        <v>2350.873125563625</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>847.3980557622425</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1357.607804942733</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1357.607804942733</v>
       </c>
       <c r="W10" t="n">
-        <v>1222.576334445738</v>
+        <v>1068.190634905773</v>
       </c>
       <c r="X10" t="n">
-        <v>994.5867835477208</v>
+        <v>1068.190634905773</v>
       </c>
       <c r="Y10" t="n">
-        <v>773.7942044041906</v>
+        <v>847.3980557622425</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>1017.232257523796</v>
       </c>
       <c r="C13" t="n">
-        <v>808.8888553856862</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>658.7722159733504</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565344</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1238.024836667327</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263531</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
         <v>929.7309773356194</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.49250999242</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336618</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130731</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.31562509377</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.31562509377</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.31562509377</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718102</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741043</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085241</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879354</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842393</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>963.2236229443761</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008459</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>696.7084350851671</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>546.5917956728314</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>398.6787020904383</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F25" t="n">
-        <v>251.7887545925279</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>135.9796239950296</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>801.6918836311944</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>632.7557007032875</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>482.6390612909518</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>334.7259677085586</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>187.8360202106483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>983.3403484614341</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2188.359466111739</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1899.284239455937</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1644.59975125005</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.182581213089</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.193030315072</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1271.108407302817</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162841</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>467.7318369701959</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>129.4330134067482</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>73.66059580999774</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>52.15286157683627</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>201.1712862899753</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>80.62055371233259</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>38.36786441186851</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012282</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238263</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.219052476067773e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>68.29586847697126</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>180.5336875992863</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012564</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.633700730434</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>24.58839950885078</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.131767663158371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185644</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>41.11201973523728</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.05123379926114</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.44497470121918</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.6085800303782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>27.76311574357371</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>170.2393389614408</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>187.7316302469144</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>121.5862749664513</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>968625.542433731</v>
+        <v>968625.5424337306</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1037651.13011493</v>
+        <v>1037651.130114931</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1037651.13011493</v>
+        <v>1037651.130114931</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1037651.13011493</v>
+        <v>1037651.130114931</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631202</v>
+        <v>354580.0968631199</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
         <v>383394.6348527531</v>
@@ -26329,31 +26329,31 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="I2" t="n">
-        <v>383394.6348527531</v>
-      </c>
       <c r="J2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="N2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.6348527529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.38997943752</v>
+        <v>94171.38997943723</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26430,7 +26430,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26439,22 +26439,22 @@
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675657</v>
+        <v>9337.200356756604</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756543</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-947280.8491320815</v>
+        <v>-947467.2425206209</v>
       </c>
       <c r="C6" t="n">
-        <v>160330.7945535875</v>
+        <v>160330.7945535878</v>
       </c>
       <c r="D6" t="n">
-        <v>909.5245556952432</v>
+        <v>909.5245556953159</v>
       </c>
       <c r="E6" t="n">
-        <v>-52477.55713526574</v>
+        <v>-52512.29506070198</v>
       </c>
       <c r="F6" t="n">
-        <v>272934.9046720894</v>
+        <v>272900.1667466537</v>
       </c>
       <c r="G6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466538</v>
       </c>
       <c r="H6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466537</v>
       </c>
       <c r="I6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466537</v>
       </c>
       <c r="J6" t="n">
-        <v>105329.726862107</v>
+        <v>105294.9889366709</v>
       </c>
       <c r="K6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466536</v>
       </c>
       <c r="L6" t="n">
-        <v>224640.9346638985</v>
+        <v>224606.1967384627</v>
       </c>
       <c r="M6" t="n">
-        <v>187879.8767365773</v>
+        <v>187845.1388111417</v>
       </c>
       <c r="N6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466534</v>
       </c>
       <c r="O6" t="n">
-        <v>272934.9046720892</v>
+        <v>272900.1667466534</v>
       </c>
       <c r="P6" t="n">
-        <v>272934.9046720892</v>
+        <v>272900.1667466536</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.31998695107188</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>282.4609572306648</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.27816710651369</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27591,7 +27591,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>193.3475282784572</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>350.1676434870049</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>155.9872498595236</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>137.2130539912186</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>42.79626188577316</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.81231987170918</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>181.0031817823368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.4720897689696</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>216.1336010297521</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>334.769386094615</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>245.9137357376028</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,19 +35024,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>464.8576954028716</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802847</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
